--- a/data/trans_bre/P18_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_6_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>-11,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-13,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>6,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>104,13%</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,13%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>-48,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>226,61%</t>
+          <t>-43,36%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>78,87%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>77,34%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 20,37</t>
+          <t>-34,62; 22,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 8,56</t>
+          <t>-52,25; 13,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 12,39</t>
+          <t>-52,68; 9,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 18,42</t>
+          <t>-6,14; 20,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,82; —</t>
+          <t>-6,85; 27,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-86,98; 675,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 252,16</t>
+          <t>-96,08; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 946,33</t>
+          <t>-89,71; 93,02</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-49,14; 880,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-40,25; 541,13</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,75</t>
+          <t>14,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,85</t>
+          <t>11,34</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>150,94%</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>130,28%</t>
+          <t>300,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>291,46%</t>
+          <t>100,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>113,9%</t>
+          <t>229,51%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>172,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>172,17%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 14,66</t>
+          <t>8,03; 21,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 11,24</t>
+          <t>-0,4; 11,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 15,51</t>
+          <t>4,67; 17,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 12,9</t>
+          <t>4,11; 17,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>50,22; 328,08</t>
+          <t>5,4; 20,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,66; 357,46</t>
+          <t>102,32; 832,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>113,13; 652,45</t>
+          <t>-7,8; 349,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,65; 276,65</t>
+          <t>49,41; 734,91</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35,72; 495,64</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42,52; 536,67</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>7,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>85,73%</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,93%</t>
+          <t>118,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>158,37%</t>
+          <t>42,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>56,56%</t>
+          <t>94,09%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19,5%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 12,5</t>
+          <t>0,1; 14,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 5,34</t>
+          <t>-2,9; 5,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 13,28</t>
+          <t>-0,78; 11,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 9,52</t>
+          <t>-6,25; 6,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 242,48</t>
+          <t>-6,37; 10,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 219,11</t>
+          <t>-5,27; 457,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,82; 446,48</t>
+          <t>-73,18; 547,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,79; 217,08</t>
+          <t>-18,14; 412,76</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-57,08; 163,67</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-39,77; 142,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>118,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>145,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>108,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 12,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 6,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 10,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,05; 240,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 167,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,97; 299,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>41,03; 199,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,96</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,52</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,19</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>142,07%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>63,87%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>90,03%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>87,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 14,57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 5,76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 10,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 10,69</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 13,56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,0; 347,92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-62,37; 151,07</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-29,11; 195,55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,36; 227,23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,84; 205,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_6_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_6_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,229 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-11,8</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-13,02</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,84</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,93%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-48,91%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-43,36%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>78,87%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>77,34%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.000120055766941</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.620957091793029</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-10.10908406290947</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5.425585061471611</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>9.846150589684839</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1192802731834404</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3841108144907217</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3701413865014461</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6269443876410088</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8708228035899587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-34,62; 22,87</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-52,25; 13,49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-52,68; 9,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 20,72</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 27,77</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-96,08; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-89,71; 93,02</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-49,14; 880,04</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-40,25; 541,13</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-34.61817109200312</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-47.60933189809371</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-44.8790678260925</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.113046014280676</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-6.840772939883573</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.9542777677577443</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.8731001692136525</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.541738061699915</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3753329327389149</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.87234030106537</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.38241979573602</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.797011471444232</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>18.64699543723283</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>28.94721893412843</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>1.027224717994997</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>7.610712713283831</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>5.787942568490877</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>14,57</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>11,34</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,86</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>12,35</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>300,14%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>100,15%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>229,51%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>172,07%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>172,17%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>8,03; 21,94</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 11,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,67; 17,68</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 17,11</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>5,4; 20,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>102,32; 832,88</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-7,8; 349,44</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>49,41; 734,91</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>35,72; 495,64</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>42,52; 536,67</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>14.5663399995102</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.867310596037311</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>11.30062081470145</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>10.08454024891484</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>12.51907003825398</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.001430619884874</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.14641198279671</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.36708555192043</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.503340833384158</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.689056222598413</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,49</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>5,26</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,26</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>118,88%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>42,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>94,09%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,79%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>19,5%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>8.030352546182366</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.5525880824324644</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4.225242431042626</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.744488665177904</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5.093015125000458</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1.023240084388751</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.0005466488476107433</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.4989123705377869</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.25059468743563</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.4342638432391904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 14,2</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,9; 5,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 11,32</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,25; 6,03</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 10,19</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-5,27; 457,37</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-73,18; 547,6</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-18,14; 412,76</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-57,08; 163,67</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-39,77; 142,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>21.94025166043084</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.8676445212783</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.69089764561551</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>16.45619349337999</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>21.05492569713497</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>8.328834403890147</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>4.021197351674515</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>7.517068034917709</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>4.467863989552418</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>5.204614343976786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +873,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>7.488738479947942</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.516195786217412</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.21283967765905</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.2912755068375142</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.934791881500093</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.188767696025379</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5933269424928942</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.6625095964137254</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.03942554859355205</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1664162691189108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.1039072827383743</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.303426460920939</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.884025500175235</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.827122548366715</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-6.808032522871919</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.05274978321843281</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7071145877310607</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.380526813091018</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6122946225010096</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4286967264892616</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.2017877235631</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.341224832541256</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.0803153735981</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.87817360691664</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>9.924038228721598</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.573733882371536</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>5.82536030044167</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.484854473089071</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.548537239232749</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.395388288562196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>9,96</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,52</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,19</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>142,07%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>18,71%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>63,87%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>90,03%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>87,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 14,57</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,64; 5,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,12; 10,62</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 10,69</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 13,56</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,0; 347,92</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-62,37; 151,07</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-29,11; 195,55</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>17,36; 227,23</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>21,84; 205,73</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>9.96499666817129</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.639181288095868</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>5.721572677136347</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.641196630483976</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>8.426800798471064</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.420731674520379</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.4025325714558173</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6878000584948731</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.7819682636589657</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.8913311591698077</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.801533745253186</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-5.80755783760535</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.020397127804727</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.142908754052562</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.25912877998109</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.04996819434943376</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.526536282273022</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2140701194653525</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.09905652588626192</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.2450223859620568</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.5661941187732</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.229271570467385</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.76462642280908</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.19466531862907</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>14.09957378721041</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.47917042245157</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.884678641260903</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.959113201441561</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.044441768468169</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.127683805062152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
